--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vwf-Itga2b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.243714</v>
+        <v>42.48700833333334</v>
       </c>
       <c r="H2">
-        <v>108.731142</v>
+        <v>127.461025</v>
       </c>
       <c r="I2">
-        <v>0.8649908629189639</v>
+        <v>0.8741865936964721</v>
       </c>
       <c r="J2">
-        <v>0.8684205217155003</v>
+        <v>0.877455058515614</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.534622</v>
+        <v>0.8151449999999999</v>
       </c>
       <c r="N2">
-        <v>4.603866</v>
+        <v>2.445435</v>
       </c>
       <c r="O2">
-        <v>0.2309523132298141</v>
+        <v>0.1271069095499719</v>
       </c>
       <c r="P2">
-        <v>0.2390161013490993</v>
+        <v>0.1371035811308388</v>
       </c>
       <c r="Q2">
-        <v>55.62040086610801</v>
+        <v>34.633072407875</v>
       </c>
       <c r="R2">
-        <v>500.583607794972</v>
+        <v>311.697651670875</v>
       </c>
       <c r="S2">
-        <v>0.1997716407137878</v>
+        <v>0.1111151562947755</v>
       </c>
       <c r="T2">
-        <v>0.2075664874319897</v>
+        <v>0.1203022308038604</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.243714</v>
+        <v>42.48700833333334</v>
       </c>
       <c r="H3">
-        <v>108.731142</v>
+        <v>127.461025</v>
       </c>
       <c r="I3">
-        <v>0.8649908629189639</v>
+        <v>0.8741865936964721</v>
       </c>
       <c r="J3">
-        <v>0.8684205217155003</v>
+        <v>0.877455058515614</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.240068000000001</v>
       </c>
       <c r="O3">
-        <v>0.4635267575122261</v>
+        <v>0.4802730342501803</v>
       </c>
       <c r="P3">
-        <v>0.4797109710753027</v>
+        <v>0.5180454245123947</v>
       </c>
       <c r="Q3">
-        <v>111.631460644184</v>
+        <v>130.8609487055222</v>
       </c>
       <c r="R3">
-        <v>1004.683145797656</v>
+        <v>1177.7485383497</v>
       </c>
       <c r="S3">
-        <v>0.4009464099665297</v>
+        <v>0.4198482478554342</v>
       </c>
       <c r="T3">
-        <v>0.4165908517738637</v>
+        <v>0.4545615782792694</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.243714</v>
+        <v>42.48700833333334</v>
       </c>
       <c r="H4">
-        <v>108.731142</v>
+        <v>127.461025</v>
       </c>
       <c r="I4">
-        <v>0.8649908629189639</v>
+        <v>0.8741865936964721</v>
       </c>
       <c r="J4">
-        <v>0.8684205217155003</v>
+        <v>0.877455058515614</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3168843333333333</v>
+        <v>0.5185940000000001</v>
       </c>
       <c r="N4">
-        <v>0.950653</v>
+        <v>1.555782</v>
       </c>
       <c r="O4">
-        <v>0.04768937875882193</v>
+        <v>0.08086522109705406</v>
       </c>
       <c r="P4">
-        <v>0.04935447161056063</v>
+        <v>0.08722508823947427</v>
       </c>
       <c r="Q4">
-        <v>11.485065148414</v>
+        <v>22.03350759961667</v>
       </c>
       <c r="R4">
-        <v>103.365586335726</v>
+        <v>198.30156839655</v>
       </c>
       <c r="S4">
-        <v>0.04125087688466268</v>
+        <v>0.07069129217934578</v>
       </c>
       <c r="T4">
-        <v>0.04286043598503591</v>
+        <v>0.07653609490519749</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.243714</v>
+        <v>42.48700833333334</v>
       </c>
       <c r="H5">
-        <v>108.731142</v>
+        <v>127.461025</v>
       </c>
       <c r="I5">
-        <v>0.8649908629189639</v>
+        <v>0.8741865936964721</v>
       </c>
       <c r="J5">
-        <v>0.8684205217155003</v>
+        <v>0.877455058515614</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.672531</v>
+        <v>1.402793</v>
       </c>
       <c r="N5">
-        <v>1.345062</v>
+        <v>2.805586</v>
       </c>
       <c r="O5">
-        <v>0.1012122790946305</v>
+        <v>0.2187398352051889</v>
       </c>
       <c r="P5">
-        <v>0.06983076295287964</v>
+        <v>0.1572954863942594</v>
       </c>
       <c r="Q5">
-        <v>24.375021220134</v>
+        <v>59.60047788094167</v>
       </c>
       <c r="R5">
-        <v>146.250127320804</v>
+        <v>357.60286728565</v>
       </c>
       <c r="S5">
-        <v>0.08754769663205948</v>
+        <v>0.1912194314437518</v>
       </c>
       <c r="T5">
-        <v>0.06064246759533117</v>
+        <v>0.1380197202183168</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.243714</v>
+        <v>42.48700833333334</v>
       </c>
       <c r="H6">
-        <v>108.731142</v>
+        <v>127.461025</v>
       </c>
       <c r="I6">
-        <v>0.8649908629189639</v>
+        <v>0.8741865936964721</v>
       </c>
       <c r="J6">
-        <v>0.8684205217155003</v>
+        <v>0.877455058515614</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.040697</v>
+        <v>0.5965113333333333</v>
       </c>
       <c r="N6">
-        <v>3.122091</v>
+        <v>1.789534</v>
       </c>
       <c r="O6">
-        <v>0.1566192714045073</v>
+        <v>0.09301499989760488</v>
       </c>
       <c r="P6">
-        <v>0.1620876930121578</v>
+        <v>0.1003304197230327</v>
       </c>
       <c r="Q6">
-        <v>37.71872442865801</v>
+        <v>25.34398199026111</v>
       </c>
       <c r="R6">
-        <v>339.468519857922</v>
+        <v>228.09583791235</v>
       </c>
       <c r="S6">
-        <v>0.1354742387219242</v>
+        <v>0.08131246592316491</v>
       </c>
       <c r="T6">
-        <v>0.1407602789292799</v>
+        <v>0.0880354343089698</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.488721</v>
       </c>
       <c r="I7">
-        <v>0.003887931201132964</v>
+        <v>0.003351874396568939</v>
       </c>
       <c r="J7">
-        <v>0.003903346713615139</v>
+        <v>0.003364406599215795</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.534622</v>
+        <v>0.8151449999999999</v>
       </c>
       <c r="N7">
-        <v>4.603866</v>
+        <v>2.445435</v>
       </c>
       <c r="O7">
-        <v>0.2309523132298141</v>
+        <v>0.1271069095499719</v>
       </c>
       <c r="P7">
-        <v>0.2390161013490993</v>
+        <v>0.1371035811308388</v>
       </c>
       <c r="Q7">
-        <v>0.250000666154</v>
+        <v>0.132792826515</v>
       </c>
       <c r="R7">
-        <v>2.250005995386</v>
+        <v>1.195135438635</v>
       </c>
       <c r="S7">
-        <v>0.0008979267045800277</v>
+        <v>0.0004260463957475547</v>
       </c>
       <c r="T7">
-        <v>0.0009329627137021099</v>
+        <v>0.0004612721931327123</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.488721</v>
       </c>
       <c r="I8">
-        <v>0.003887931201132964</v>
+        <v>0.003351874396568939</v>
       </c>
       <c r="J8">
-        <v>0.003903346713615139</v>
+        <v>0.003364406599215795</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.240068000000001</v>
       </c>
       <c r="O8">
-        <v>0.4635267575122261</v>
+        <v>0.4802730342501803</v>
       </c>
       <c r="P8">
-        <v>0.4797109710753027</v>
+        <v>0.5180454245123947</v>
       </c>
       <c r="Q8">
         <v>0.5017572525586667</v>
@@ -948,10 +948,10 @@
         <v>4.515815273028</v>
       </c>
       <c r="S8">
-        <v>0.001802160143091777</v>
+        <v>0.001609814886865657</v>
       </c>
       <c r="T8">
-        <v>0.00187247824243191</v>
+        <v>0.001742915444923048</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.488721</v>
       </c>
       <c r="I9">
-        <v>0.003887931201132964</v>
+        <v>0.003351874396568939</v>
       </c>
       <c r="J9">
-        <v>0.003903346713615139</v>
+        <v>0.003364406599215795</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3168843333333333</v>
+        <v>0.5185940000000001</v>
       </c>
       <c r="N9">
-        <v>0.950653</v>
+        <v>1.555782</v>
       </c>
       <c r="O9">
-        <v>0.04768937875882193</v>
+        <v>0.08086522109705406</v>
       </c>
       <c r="P9">
-        <v>0.04935447161056063</v>
+        <v>0.08722508823947427</v>
       </c>
       <c r="Q9">
-        <v>0.05162267609033333</v>
+        <v>0.08448259275800002</v>
       </c>
       <c r="R9">
-        <v>0.464604084813</v>
+        <v>0.7603433348220001</v>
       </c>
       <c r="S9">
-        <v>0.0001854130236390714</v>
+        <v>0.0002710500641681019</v>
       </c>
       <c r="T9">
-        <v>0.0001926476145632935</v>
+        <v>0.0002934606624900672</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.488721</v>
       </c>
       <c r="I10">
-        <v>0.003887931201132964</v>
+        <v>0.003351874396568939</v>
       </c>
       <c r="J10">
-        <v>0.003903346713615139</v>
+        <v>0.003364406599215795</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.672531</v>
+        <v>1.402793</v>
       </c>
       <c r="N10">
-        <v>1.345062</v>
+        <v>2.805586</v>
       </c>
       <c r="O10">
-        <v>0.1012122790946305</v>
+        <v>0.2187398352051889</v>
       </c>
       <c r="P10">
-        <v>0.06983076295287964</v>
+        <v>0.1572954863942594</v>
       </c>
       <c r="Q10">
-        <v>0.109560007617</v>
+        <v>0.228524799251</v>
       </c>
       <c r="R10">
-        <v>0.6573600457019999</v>
+        <v>1.371148795506</v>
       </c>
       <c r="S10">
-        <v>0.0003935063778297917</v>
+        <v>0.0007331884531339819</v>
       </c>
       <c r="T10">
-        <v>0.0002725736790813606</v>
+        <v>0.0005292059724517044</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.488721</v>
       </c>
       <c r="I11">
-        <v>0.003887931201132964</v>
+        <v>0.003351874396568939</v>
       </c>
       <c r="J11">
-        <v>0.003903346713615139</v>
+        <v>0.003364406599215795</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.040697</v>
+        <v>0.5965113333333333</v>
       </c>
       <c r="N11">
-        <v>3.122091</v>
+        <v>1.789534</v>
       </c>
       <c r="O11">
-        <v>0.1566192714045073</v>
+        <v>0.09301499989760488</v>
       </c>
       <c r="P11">
-        <v>0.1620876930121578</v>
+        <v>0.1003304197230327</v>
       </c>
       <c r="Q11">
-        <v>0.169536826179</v>
+        <v>0.09717587177933332</v>
       </c>
       <c r="R11">
-        <v>1.525831435611</v>
+        <v>0.874582846014</v>
       </c>
       <c r="S11">
-        <v>0.000608924951992296</v>
+        <v>0.0003117745966536443</v>
       </c>
       <c r="T11">
-        <v>0.0006326844638364655</v>
+        <v>0.0003375523262182618</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.035480333333334</v>
+        <v>3.784599666666667</v>
       </c>
       <c r="H12">
-        <v>9.106441</v>
+        <v>11.353799</v>
       </c>
       <c r="I12">
-        <v>0.07244463834207344</v>
+        <v>0.07786959875243754</v>
       </c>
       <c r="J12">
-        <v>0.07273187882264147</v>
+        <v>0.07816074259499733</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.534622</v>
+        <v>0.8151449999999999</v>
       </c>
       <c r="N12">
-        <v>4.603866</v>
+        <v>2.445435</v>
       </c>
       <c r="O12">
-        <v>0.2309523132298141</v>
+        <v>0.1271069095499719</v>
       </c>
       <c r="P12">
-        <v>0.2390161013490993</v>
+        <v>0.1371035811308388</v>
       </c>
       <c r="Q12">
-        <v>4.658314900100667</v>
+        <v>3.084997495285</v>
       </c>
       <c r="R12">
-        <v>41.924834100906</v>
+        <v>27.764977457565</v>
       </c>
       <c r="S12">
-        <v>0.01673125680619915</v>
+        <v>0.009897764045318681</v>
       </c>
       <c r="T12">
-        <v>0.01738409011998288</v>
+        <v>0.01071611771361983</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.035480333333334</v>
+        <v>3.784599666666667</v>
       </c>
       <c r="H13">
-        <v>9.106441</v>
+        <v>11.353799</v>
       </c>
       <c r="I13">
-        <v>0.07244463834207344</v>
+        <v>0.07786959875243754</v>
       </c>
       <c r="J13">
-        <v>0.07273187882264147</v>
+        <v>0.07816074259499733</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.240068000000001</v>
       </c>
       <c r="O13">
-        <v>0.4635267575122261</v>
+        <v>0.4802730342501803</v>
       </c>
       <c r="P13">
-        <v>0.4797109710753027</v>
+        <v>0.5180454245123947</v>
       </c>
       <c r="Q13">
-        <v>9.349348230887557</v>
+        <v>11.65665275759245</v>
       </c>
       <c r="R13">
-        <v>84.14413407798801</v>
+        <v>104.909874818332</v>
       </c>
       <c r="S13">
-        <v>0.03358002830984719</v>
+        <v>0.03739866846867723</v>
       </c>
       <c r="T13">
-        <v>0.03489028021814058</v>
+        <v>0.0404908150778294</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.035480333333334</v>
+        <v>3.784599666666667</v>
       </c>
       <c r="H14">
-        <v>9.106441</v>
+        <v>11.353799</v>
       </c>
       <c r="I14">
-        <v>0.07244463834207344</v>
+        <v>0.07786959875243754</v>
       </c>
       <c r="J14">
-        <v>0.07273187882264147</v>
+        <v>0.07816074259499733</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3168843333333333</v>
+        <v>0.5185940000000001</v>
       </c>
       <c r="N14">
-        <v>0.950653</v>
+        <v>1.555782</v>
       </c>
       <c r="O14">
-        <v>0.04768937875882193</v>
+        <v>0.08086522109705406</v>
       </c>
       <c r="P14">
-        <v>0.04935447161056063</v>
+        <v>0.08722508823947427</v>
       </c>
       <c r="Q14">
-        <v>0.9618961617747778</v>
+        <v>1.962670679535334</v>
       </c>
       <c r="R14">
-        <v>8.657065455972999</v>
+        <v>17.664036115818</v>
       </c>
       <c r="S14">
-        <v>0.003454839796941014</v>
+        <v>0.006296942319854747</v>
       </c>
       <c r="T14">
-        <v>0.003589643448534794</v>
+        <v>0.006817577669711477</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.035480333333334</v>
+        <v>3.784599666666667</v>
       </c>
       <c r="H15">
-        <v>9.106441</v>
+        <v>11.353799</v>
       </c>
       <c r="I15">
-        <v>0.07244463834207344</v>
+        <v>0.07786959875243754</v>
       </c>
       <c r="J15">
-        <v>0.07273187882264147</v>
+        <v>0.07816074259499733</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.672531</v>
+        <v>1.402793</v>
       </c>
       <c r="N15">
-        <v>1.345062</v>
+        <v>2.805586</v>
       </c>
       <c r="O15">
-        <v>0.1012122790946305</v>
+        <v>0.2187398352051889</v>
       </c>
       <c r="P15">
-        <v>0.06983076295287964</v>
+        <v>0.1572954863942594</v>
       </c>
       <c r="Q15">
-        <v>2.041454624057</v>
+        <v>5.309009920202334</v>
       </c>
       <c r="R15">
-        <v>12.248727744342</v>
+        <v>31.854059521214</v>
       </c>
       <c r="S15">
-        <v>0.007332286954787511</v>
+        <v>0.01703318319860237</v>
       </c>
       <c r="T15">
-        <v>0.005078922589181443</v>
+        <v>0.01229433202341661</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.035480333333334</v>
+        <v>3.784599666666667</v>
       </c>
       <c r="H16">
-        <v>9.106441</v>
+        <v>11.353799</v>
       </c>
       <c r="I16">
-        <v>0.07244463834207344</v>
+        <v>0.07786959875243754</v>
       </c>
       <c r="J16">
-        <v>0.07273187882264147</v>
+        <v>0.07816074259499733</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.040697</v>
+        <v>0.5965113333333333</v>
       </c>
       <c r="N16">
-        <v>3.122091</v>
+        <v>1.789534</v>
       </c>
       <c r="O16">
-        <v>0.1566192714045073</v>
+        <v>0.09301499989760488</v>
       </c>
       <c r="P16">
-        <v>0.1620876930121578</v>
+        <v>0.1003304197230327</v>
       </c>
       <c r="Q16">
-        <v>3.159015276459</v>
+        <v>2.257556593296222</v>
       </c>
       <c r="R16">
-        <v>28.431137488131</v>
+        <v>20.318009339666</v>
       </c>
       <c r="S16">
-        <v>0.01134622647429858</v>
+        <v>0.007243040719984511</v>
       </c>
       <c r="T16">
-        <v>0.01178894244680177</v>
+        <v>0.007841900110420005</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.496436</v>
+        <v>0.5431155000000001</v>
       </c>
       <c r="H17">
-        <v>0.992872</v>
+        <v>1.086231</v>
       </c>
       <c r="I17">
-        <v>0.01184791944953651</v>
+        <v>0.01117481101996684</v>
       </c>
       <c r="J17">
-        <v>0.007929930693054914</v>
+        <v>0.007477728079359741</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.534622</v>
+        <v>0.8151449999999999</v>
       </c>
       <c r="N17">
-        <v>4.603866</v>
+        <v>2.445435</v>
       </c>
       <c r="O17">
-        <v>0.2309523132298141</v>
+        <v>0.1271069095499719</v>
       </c>
       <c r="P17">
-        <v>0.2390161013490993</v>
+        <v>0.1371035811308388</v>
       </c>
       <c r="Q17">
-        <v>0.761841607192</v>
+        <v>0.4427178842475</v>
       </c>
       <c r="R17">
-        <v>4.571049643152</v>
+        <v>2.656307305485</v>
       </c>
       <c r="S17">
-        <v>0.002736304403830962</v>
+        <v>0.001420395693552954</v>
       </c>
       <c r="T17">
-        <v>0.001895381118222547</v>
+        <v>0.00102522329840285</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.496436</v>
+        <v>0.5431155000000001</v>
       </c>
       <c r="H18">
-        <v>0.992872</v>
+        <v>1.086231</v>
       </c>
       <c r="I18">
-        <v>0.01184791944953651</v>
+        <v>0.01117481101996684</v>
       </c>
       <c r="J18">
-        <v>0.007929930693054914</v>
+        <v>0.007477728079359741</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.240068000000001</v>
       </c>
       <c r="O18">
-        <v>0.4635267575122261</v>
+        <v>0.4802730342501803</v>
       </c>
       <c r="P18">
-        <v>0.4797109710753027</v>
+        <v>0.5180454245123947</v>
       </c>
       <c r="Q18">
-        <v>1.529034132549333</v>
+        <v>1.672808050618</v>
       </c>
       <c r="R18">
-        <v>9.174204795296001</v>
+        <v>10.036848303708</v>
       </c>
       <c r="S18">
-        <v>0.005491827685709696</v>
+        <v>0.005366960395731827</v>
       </c>
       <c r="T18">
-        <v>0.003804074753325221</v>
+        <v>0.003873802817260171</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.496436</v>
+        <v>0.5431155000000001</v>
       </c>
       <c r="H19">
-        <v>0.992872</v>
+        <v>1.086231</v>
       </c>
       <c r="I19">
-        <v>0.01184791944953651</v>
+        <v>0.01117481101996684</v>
       </c>
       <c r="J19">
-        <v>0.007929930693054914</v>
+        <v>0.007477728079359741</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3168843333333333</v>
+        <v>0.5185940000000001</v>
       </c>
       <c r="N19">
-        <v>0.950653</v>
+        <v>1.555782</v>
       </c>
       <c r="O19">
-        <v>0.04768937875882193</v>
+        <v>0.08086522109705406</v>
       </c>
       <c r="P19">
-        <v>0.04935447161056063</v>
+        <v>0.08722508823947427</v>
       </c>
       <c r="Q19">
-        <v>0.1573127909026667</v>
+        <v>0.2816564396070001</v>
       </c>
       <c r="R19">
-        <v>0.943876745416</v>
+        <v>1.689938637642</v>
       </c>
       <c r="S19">
-        <v>0.0005650199181329596</v>
+        <v>0.0009036535638474148</v>
       </c>
       <c r="T19">
-        <v>0.0003913775392640921</v>
+        <v>0.0006522454915529478</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.496436</v>
+        <v>0.5431155000000001</v>
       </c>
       <c r="H20">
-        <v>0.992872</v>
+        <v>1.086231</v>
       </c>
       <c r="I20">
-        <v>0.01184791944953651</v>
+        <v>0.01117481101996684</v>
       </c>
       <c r="J20">
-        <v>0.007929930693054914</v>
+        <v>0.007477728079359741</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.672531</v>
+        <v>1.402793</v>
       </c>
       <c r="N20">
-        <v>1.345062</v>
+        <v>2.805586</v>
       </c>
       <c r="O20">
-        <v>0.1012122790946305</v>
+        <v>0.2187398352051889</v>
       </c>
       <c r="P20">
-        <v>0.06983076295287964</v>
+        <v>0.1572954863942594</v>
       </c>
       <c r="Q20">
-        <v>0.333868599516</v>
+        <v>0.7618786215915001</v>
       </c>
       <c r="R20">
-        <v>1.335474398064</v>
+        <v>3.047514486366</v>
       </c>
       <c r="S20">
-        <v>0.001199154930017191</v>
+        <v>0.002444376320956676</v>
       </c>
       <c r="T20">
-        <v>0.0005537531104594822</v>
+        <v>0.001176212875366901</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.496436</v>
+        <v>0.5431155000000001</v>
       </c>
       <c r="H21">
-        <v>0.992872</v>
+        <v>1.086231</v>
       </c>
       <c r="I21">
-        <v>0.01184791944953651</v>
+        <v>0.01117481101996684</v>
       </c>
       <c r="J21">
-        <v>0.007929930693054914</v>
+        <v>0.007477728079359741</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.040697</v>
+        <v>0.5965113333333333</v>
       </c>
       <c r="N21">
-        <v>3.122091</v>
+        <v>1.789534</v>
       </c>
       <c r="O21">
-        <v>0.1566192714045073</v>
+        <v>0.09301499989760488</v>
       </c>
       <c r="P21">
-        <v>0.1620876930121578</v>
+        <v>0.1003304197230327</v>
       </c>
       <c r="Q21">
-        <v>0.516639455892</v>
+        <v>0.323974551059</v>
       </c>
       <c r="R21">
-        <v>3.099836735352</v>
+        <v>1.943847306354</v>
       </c>
       <c r="S21">
-        <v>0.0018556125118457</v>
+        <v>0.001039425045877969</v>
       </c>
       <c r="T21">
-        <v>0.001285344171783573</v>
+        <v>0.0007502435967768703</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.962152666666667</v>
+        <v>1.624131</v>
       </c>
       <c r="H22">
-        <v>5.886458</v>
+        <v>4.872393</v>
       </c>
       <c r="I22">
-        <v>0.04682864808829321</v>
+        <v>0.03341712213455474</v>
       </c>
       <c r="J22">
-        <v>0.04701432205518803</v>
+        <v>0.03354206421081321</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.534622</v>
+        <v>0.8151449999999999</v>
       </c>
       <c r="N22">
-        <v>4.603866</v>
+        <v>2.445435</v>
       </c>
       <c r="O22">
-        <v>0.2309523132298141</v>
+        <v>0.1271069095499719</v>
       </c>
       <c r="P22">
-        <v>0.2390161013490993</v>
+        <v>0.1371035811308388</v>
       </c>
       <c r="Q22">
-        <v>3.011162649625333</v>
+        <v>1.323902263995</v>
       </c>
       <c r="R22">
-        <v>27.100463846628</v>
+        <v>11.915120375955</v>
       </c>
       <c r="S22">
-        <v>0.01081518460141623</v>
+        <v>0.004247547120577211</v>
       </c>
       <c r="T22">
-        <v>0.01123717996520202</v>
+        <v>0.004598737121823035</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.962152666666667</v>
+        <v>1.624131</v>
       </c>
       <c r="H23">
-        <v>5.886458</v>
+        <v>4.872393</v>
       </c>
       <c r="I23">
-        <v>0.04682864808829321</v>
+        <v>0.03341712213455474</v>
       </c>
       <c r="J23">
-        <v>0.04701432205518803</v>
+        <v>0.03354206421081321</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.240068000000001</v>
       </c>
       <c r="O23">
-        <v>0.4635267575122261</v>
+        <v>0.4802730342501803</v>
       </c>
       <c r="P23">
-        <v>0.4797109710753027</v>
+        <v>0.5180454245123947</v>
       </c>
       <c r="Q23">
-        <v>6.043474688793778</v>
+        <v>5.002360293636</v>
       </c>
       <c r="R23">
-        <v>54.39127219914401</v>
+        <v>45.021242642724</v>
       </c>
       <c r="S23">
-        <v>0.02170633140704765</v>
+        <v>0.01604934264347146</v>
       </c>
       <c r="T23">
-        <v>0.02255328608754127</v>
+        <v>0.01737631289311273</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.962152666666667</v>
+        <v>1.624131</v>
       </c>
       <c r="H24">
-        <v>5.886458</v>
+        <v>4.872393</v>
       </c>
       <c r="I24">
-        <v>0.04682864808829321</v>
+        <v>0.03341712213455474</v>
       </c>
       <c r="J24">
-        <v>0.04701432205518803</v>
+        <v>0.03354206421081321</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.3168843333333333</v>
+        <v>0.5185940000000001</v>
       </c>
       <c r="N24">
-        <v>0.950653</v>
+        <v>1.555782</v>
       </c>
       <c r="O24">
-        <v>0.04768937875882193</v>
+        <v>0.08086522109705406</v>
       </c>
       <c r="P24">
-        <v>0.04935447161056063</v>
+        <v>0.08722508823947427</v>
       </c>
       <c r="Q24">
-        <v>0.6217754396748889</v>
+        <v>0.8422645918140002</v>
       </c>
       <c r="R24">
-        <v>5.595978957074</v>
+        <v>7.580381326326001</v>
       </c>
       <c r="S24">
-        <v>0.002233229135446197</v>
+        <v>0.002702282969838028</v>
       </c>
       <c r="T24">
-        <v>0.002320367023162532</v>
+        <v>0.002925709510522294</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.962152666666667</v>
+        <v>1.624131</v>
       </c>
       <c r="H25">
-        <v>5.886458</v>
+        <v>4.872393</v>
       </c>
       <c r="I25">
-        <v>0.04682864808829321</v>
+        <v>0.03341712213455474</v>
       </c>
       <c r="J25">
-        <v>0.04701432205518803</v>
+        <v>0.03354206421081321</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.672531</v>
+        <v>1.402793</v>
       </c>
       <c r="N25">
-        <v>1.345062</v>
+        <v>2.805586</v>
       </c>
       <c r="O25">
-        <v>0.1012122790946305</v>
+        <v>0.2187398352051889</v>
       </c>
       <c r="P25">
-        <v>0.06983076295287964</v>
+        <v>0.1572954863942594</v>
       </c>
       <c r="Q25">
-        <v>1.319608495066</v>
+        <v>2.278319597883</v>
       </c>
       <c r="R25">
-        <v>7.917650970396</v>
+        <v>13.669917587298</v>
       </c>
       <c r="S25">
-        <v>0.004739634199936569</v>
+        <v>0.007309655788744174</v>
       </c>
       <c r="T25">
-        <v>0.003283045978826176</v>
+        <v>0.005276015304707343</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.962152666666667</v>
+        <v>1.624131</v>
       </c>
       <c r="H26">
-        <v>5.886458</v>
+        <v>4.872393</v>
       </c>
       <c r="I26">
-        <v>0.04682864808829321</v>
+        <v>0.03341712213455474</v>
       </c>
       <c r="J26">
-        <v>0.04701432205518803</v>
+        <v>0.03354206421081321</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.040697</v>
+        <v>0.5965113333333333</v>
       </c>
       <c r="N26">
-        <v>3.122091</v>
+        <v>1.789534</v>
       </c>
       <c r="O26">
-        <v>0.1566192714045073</v>
+        <v>0.09301499989760488</v>
       </c>
       <c r="P26">
-        <v>0.1620876930121578</v>
+        <v>0.1003304197230327</v>
       </c>
       <c r="Q26">
-        <v>2.042006393742</v>
+        <v>0.9688125483179999</v>
       </c>
       <c r="R26">
-        <v>18.378057543678</v>
+        <v>8.719312934862</v>
       </c>
       <c r="S26">
-        <v>0.007334268744446559</v>
+        <v>0.003108293611923859</v>
       </c>
       <c r="T26">
-        <v>0.007620443000456036</v>
+        <v>0.003365289380647804</v>
       </c>
     </row>
   </sheetData>
